--- a/player_d_dash/defense-dash-overall_SeasonType_Playoffs_Season_2017-18.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Playoffs_Season_2017-18.xlsx
@@ -1559,22 +1559,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-4.5</t>
+          <t>-4.3</t>
         </is>
       </c>
     </row>
@@ -1624,22 +1624,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1669,17 +1669,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>-4.5</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Evan Turner</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3779,22 +3779,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -3834,32 +3834,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Evan Turner</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -3899,22 +3899,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rudy Gay</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -3964,32 +3964,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Rudy Gay</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -4744,32 +4744,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Robert Covington</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -4809,32 +4809,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Robert Covington</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -5069,32 +5069,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JJ Redick</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -5134,32 +5134,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>JJ Redick</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -5264,22 +5264,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5309,17 +5309,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -5329,22 +5329,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -5589,32 +5589,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Derrick Rose</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
@@ -5654,32 +5654,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Jeff Teague</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5699,17 +5699,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>65.2</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>17.7</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jeff Teague</t>
+          <t>Derrick Rose</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7519,17 +7519,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7549,12 +7549,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7584,17 +7584,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -7604,22 +7604,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Gorgui Dieng</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-15.9</t>
         </is>
       </c>
     </row>
@@ -7669,22 +7669,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Gorgui Dieng</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-15.9</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -8189,17 +8189,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Ty Lawson</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-6.3</t>
+          <t>-14.6</t>
         </is>
       </c>
     </row>
@@ -8254,17 +8254,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ty Lawson</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8299,17 +8299,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-14.6</t>
+          <t>-6.3</t>
         </is>
       </c>
     </row>
@@ -8384,12 +8384,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Alex Abrines</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8399,17 +8399,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-10.6</t>
+          <t>-10.1</t>
         </is>
       </c>
     </row>
@@ -8449,12 +8449,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Alex Abrines</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8464,17 +8464,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-10.1</t>
+          <t>-10.6</t>
         </is>
       </c>
     </row>
@@ -9164,32 +9164,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Jason Terry</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-17.1</t>
+          <t>5.4</t>
         </is>
       </c>
     </row>
@@ -9229,32 +9229,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jason Terry</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>-17.1</t>
         </is>
       </c>
     </row>
@@ -9294,17 +9294,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Shaun Livingston</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -9314,12 +9314,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -9359,17 +9359,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Shaun Livingston</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9379,12 +9379,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -11049,32 +11049,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Justin Anderson</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>14.5</t>
         </is>
       </c>
     </row>
@@ -11114,22 +11114,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Wade Baldwin IV</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-11.1</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -11179,17 +11179,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Jose Calderon</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -11199,12 +11199,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -11244,17 +11244,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Jose Calderon</t>
+          <t>Wade Baldwin IV</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -11264,12 +11264,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-11.1</t>
         </is>
       </c>
     </row>
@@ -11894,22 +11894,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Zaza Pachulia</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -11959,22 +11959,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Zaza Pachulia</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -11994,7 +11994,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12004,17 +12004,17 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
@@ -12414,22 +12414,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Chinanu Onuaku</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-46.3</t>
+          <t>47.4</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Joffrey Lauvergne</t>
+          <t>Brandon Paul</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -12489,12 +12489,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-52.3</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -12544,32 +12544,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Joffrey Lauvergne</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>-52.3</t>
         </is>
       </c>
     </row>
@@ -12609,32 +12609,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -12644,27 +12644,27 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>3.1</t>
         </is>
       </c>
     </row>
@@ -12674,22 +12674,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Brandon Paul</t>
+          <t>Chinanu Onuaku</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>-46.3</t>
         </is>
       </c>
     </row>
@@ -13064,17 +13064,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Joe Young</t>
+          <t>Patrick McCaw</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13084,12 +13084,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -13099,27 +13099,27 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -13129,22 +13129,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Emeka Okafor</t>
+          <t>Joe Young</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -13179,12 +13179,12 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>29.9</t>
         </is>
       </c>
     </row>
@@ -13194,22 +13194,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jason Smith</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-38.6</t>
+          <t>58.6</t>
         </is>
       </c>
     </row>
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Aaron Brooks</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13304,17 +13304,17 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>-38.5</t>
+          <t>57.2</t>
         </is>
       </c>
     </row>
@@ -13324,32 +13324,32 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Tim Frazier</t>
+          <t>Zhou Qi</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -13359,27 +13359,27 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>65.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -13389,32 +13389,32 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Brandon Jennings</t>
+          <t>Dakari Johnson</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13434,17 +13434,17 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>33.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-33.5</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -13519,32 +13519,32 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Zhou Qi</t>
+          <t>Aaron Brooks</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13564,17 +13564,17 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>-38.5</t>
         </is>
       </c>
     </row>
@@ -13584,22 +13584,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Marcus Georges-Hunt</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>59.7</t>
         </is>
       </c>
     </row>
@@ -13649,22 +13649,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Marcus Georges-Hunt</t>
+          <t>Luke Babbitt</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -13699,12 +13699,12 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>69.0</t>
         </is>
       </c>
     </row>
@@ -13714,22 +13714,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Brandon Jennings</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -13749,27 +13749,27 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>33.5</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>-33.5</t>
         </is>
       </c>
     </row>
@@ -13779,17 +13779,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Dakari Johnson</t>
+          <t>Emeka Okafor</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13799,12 +13799,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -13814,7 +13814,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -13824,17 +13824,17 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>39.0</t>
         </is>
       </c>
     </row>
@@ -13844,17 +13844,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Patrick McCaw</t>
+          <t>Tim Frazier</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13864,12 +13864,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -13889,17 +13889,17 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>65.1</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>34.9</t>
         </is>
       </c>
     </row>
@@ -13909,22 +13909,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Luke Babbitt</t>
+          <t>Jason Smith</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -13944,27 +13944,27 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>-38.6</t>
         </is>
       </c>
     </row>
